--- a/stacks_checklist.xlsx
+++ b/stacks_checklist.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/Science/plasticity/analysis/bioinformatics/stacks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ddayan/Science/plasticity/analysis/bioinformatics/plasticity_genotypes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{750BEBDB-2CF5-B648-B5CB-711B042C3304}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50A5D622-A472-CB4C-9329-3B58147A46B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14380" xr2:uid="{29BB8865-5205-B147-884D-B2E7329621D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="71">
   <si>
     <t>pls_68</t>
   </si>
@@ -235,6 +238,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>alignment</t>
+  </si>
+  <si>
+    <t>delete_cleaned tags</t>
+  </si>
+  <si>
+    <t>*run separately (trial_flow) and cleaned tags moved to directory</t>
   </si>
 </sst>
 </file>
@@ -586,286 +598,631 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38ABAE99-2DEC-894A-9FFF-190494465521}">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>64</v>
       </c>
       <c r="B1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
